--- a/data-raw/oam.xlsx
+++ b/data-raw/oam.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977\Documents\GitHub\assignR\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sarah/Dropbox/HO_database/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6447A6D6-61FD-8945-9402-F3A9407DDA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27640" windowHeight="15680"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27640" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oam" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +129,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,13 +161,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,19 +479,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="14.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
@@ -565,7 +574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -651,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -737,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -823,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -909,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -995,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1029,8 +1038,8 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
+      <c r="L7" s="3">
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1081,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1444,8 +1453,8 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1511,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1597,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2027,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2199,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2371,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2457,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -2629,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -2715,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.8">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
